--- a/experimental_data/GEC/Waldstein1960.xlsx
+++ b/experimental_data/GEC/Waldstein1960.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
     <t>Waldstein1960</t>
   </si>
@@ -107,10 +107,10 @@
     <t>samples</t>
   </si>
   <si>
-    <t>Peq</t>
-  </si>
-  <si>
-    <t>PeqSd</t>
+    <t>Peqmg</t>
+  </si>
+  <si>
+    <t>PeqmgSd</t>
   </si>
   <si>
     <t>Umg</t>
@@ -125,10 +125,10 @@
     <t>CLH</t>
   </si>
   <si>
-    <t>gal</t>
-  </si>
-  <si>
-    <t>galSd</t>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>caSd</t>
   </si>
   <si>
     <t>U</t>
@@ -152,6 +152,9 @@
     <t>Figure 6</t>
   </si>
   <si>
+    <t>Infusion Rate [mmol/min]</t>
+  </si>
+  <si>
     <t>time [min]</t>
   </si>
   <si>
@@ -161,10 +164,31 @@
     <t>Hepatic vein galactose [mg/100ml]</t>
   </si>
   <si>
+    <t>Peripheral galactose [mmol/L]</t>
+  </si>
+  <si>
+    <t>Hepatic vein galactose [mmol/L]</t>
+  </si>
+  <si>
+    <t>Extraction ratio (ca-cv)/ca [-]</t>
+  </si>
+  <si>
+    <t>Img</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>Phv</t>
+    <t>Phvmg</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>ER</t>
   </si>
 </sst>
 </file>
@@ -396,7 +420,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -613,11 +637,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78102723"/>
-        <c:axId val="31697085"/>
+        <c:axId val="91895687"/>
+        <c:axId val="62369559"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78102723"/>
+        <c:axId val="91895687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,11 +677,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="31697085"/>
+        <c:crossAx val="62369559"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31697085"/>
+        <c:axId val="62369559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +717,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78102723"/>
+        <c:crossAx val="91895687"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -718,7 +742,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -904,11 +928,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="25906446"/>
-        <c:axId val="29215404"/>
+        <c:axId val="63914409"/>
+        <c:axId val="64171944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25906446"/>
+        <c:axId val="63914409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,11 +968,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="29215404"/>
+        <c:crossAx val="64171944"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29215404"/>
+        <c:axId val="64171944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1008,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25906446"/>
+        <c:crossAx val="63914409"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1009,7 +1033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1217,11 +1241,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="46163655"/>
-        <c:axId val="1139283"/>
+        <c:axId val="41388585"/>
+        <c:axId val="27036683"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46163655"/>
+        <c:axId val="41388585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,11 +1281,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1139283"/>
+        <c:crossAx val="27036683"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1139283"/>
+        <c:axId val="27036683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1321,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46163655"/>
+        <c:crossAx val="41388585"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1327,15 +1351,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>363960</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1350,8 +1374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17002080" y="3600000"/>
-          <a:ext cx="4738320" cy="3571920"/>
+          <a:off x="17029080" y="3591000"/>
+          <a:ext cx="4737960" cy="3571560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,15 +1390,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>367920</xdr:colOff>
+      <xdr:colOff>292680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,8 +1413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17006040" y="27360"/>
-          <a:ext cx="4752720" cy="3415320"/>
+          <a:off x="17033040" y="18360"/>
+          <a:ext cx="4752360" cy="3414960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,16 +1428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>803880</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>194760</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>778320</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:colOff>702720</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1428,8 +1452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12565080" y="7286760"/>
-          <a:ext cx="8102520" cy="5998680"/>
+          <a:off x="12592080" y="7277760"/>
+          <a:ext cx="8102160" cy="5998320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,15 +1468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>738720</xdr:colOff>
+      <xdr:colOff>765720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1460,8 +1484,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14938560" y="0"/>
-        <a:ext cx="4359600" cy="3164400"/>
+        <a:off x="15067800" y="0"/>
+        <a:ext cx="4359600" cy="3164040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1474,15 +1498,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>629280</xdr:colOff>
+      <xdr:colOff>656280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
+      <xdr:colOff>437760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1490,8 +1514,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14829120" y="3344040"/>
-        <a:ext cx="3845160" cy="3240000"/>
+        <a:off x="14958360" y="3335400"/>
+        <a:ext cx="3845160" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1504,15 +1528,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>254880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>372600</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1520,8 +1544,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11988720" y="7222320"/>
-        <a:ext cx="5834880" cy="4356720"/>
+        <a:off x="12016080" y="7213680"/>
+        <a:ext cx="5936400" cy="4356360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1541,8 +1565,8 @@
   </sheetPr>
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="A41:G61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1552,7 +1576,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0408163265306"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
@@ -3102,16 +3128,31 @@
         <v>14</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
@@ -3125,13 +3166,28 @@
         <v>14</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>49</v>
+      <c r="I41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,13 +3204,32 @@
         <v>1</v>
       </c>
       <c r="E42" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">E42/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="H42" s="0" t="n">
         <v>12.222344</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="I42" s="0" t="n">
         <v>5.539863</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">H42/18</f>
+        <v>0.679019111111111</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">I42/18</f>
+        <v>0.307770166666667</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">(J42-K42)/J42</f>
+        <v>0.54674299790613</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,13 +3246,32 @@
         <v>1</v>
       </c>
       <c r="E43" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">E43/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="H43" s="0" t="n">
         <v>12.143603</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="I43" s="0" t="n">
         <v>6.228584</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">H43/18</f>
+        <v>0.674644611111111</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">I43/18</f>
+        <v>0.346032444444444</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">(J43-K43)/J43</f>
+        <v>0.48708929302119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,13 +3288,32 @@
         <v>1</v>
       </c>
       <c r="E44" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">E44/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>20.280869</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="I44" s="0" t="n">
         <v>6.040305</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">H44/18</f>
+        <v>1.12671494444444</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">I44/18</f>
+        <v>0.3355725</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">(J44-K44)/J44</f>
+        <v>0.702167347957329</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,13 +3330,32 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">E45/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="H45" s="0" t="n">
         <v>23.708723</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="I45" s="0" t="n">
         <v>5.9615645</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">H45/18</f>
+        <v>1.31715127777778</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">I45/18</f>
+        <v>0.331198027777778</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">(J45-K45)/J45</f>
+        <v>0.748549742641137</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,13 +3372,32 @@
         <v>1</v>
       </c>
       <c r="E46" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">E46/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="H46" s="0" t="n">
         <v>24.725357</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="I46" s="0" t="n">
         <v>3.1450882</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">H46/18</f>
+        <v>1.37363094444444</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">I46/18</f>
+        <v>0.174727122222222</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">(J46-K46)/J46</f>
+        <v>0.872799078290356</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,13 +3414,32 @@
         <v>1</v>
       </c>
       <c r="E47" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">E47/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="H47" s="0" t="n">
         <v>27.165976</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="I47" s="0" t="n">
         <v>4.374497</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">H47/18</f>
+        <v>1.50922088888889</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">I47/18</f>
+        <v>0.243027611111111</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">(J47-K47)/J47</f>
+        <v>0.838971476673616</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,13 +3456,32 @@
         <v>1</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F48" s="0" t="n">
+        <f aca="false">E48/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>28.730995</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="I48" s="0" t="n">
         <v>5.945816</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">H48/18</f>
+        <v>1.59616638888889</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">I48/18</f>
+        <v>0.330323111111111</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">(J48-K48)/J48</f>
+        <v>0.793052207206886</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,13 +3498,32 @@
         <v>1</v>
       </c>
       <c r="E49" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">E49/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="H49" s="0" t="n">
         <v>28.684452</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="I49" s="0" t="n">
         <v>6.118346</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">H49/18</f>
+        <v>1.59358066666667</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">I49/18</f>
+        <v>0.339908111111111</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">(J49-K49)/J49</f>
+        <v>0.786701659839972</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,13 +3540,32 @@
         <v>1</v>
       </c>
       <c r="E50" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">E50/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="H50" s="0" t="n">
         <v>35.31899</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="I50" s="0" t="n">
         <v>9.138149</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">H50/18</f>
+        <v>1.96216611111111</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">I50/18</f>
+        <v>0.507674944444444</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">(J50-K50)/J50</f>
+        <v>0.741268111007704</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,13 +3582,32 @@
         <v>1</v>
       </c>
       <c r="E51" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">E51/180</f>
+        <v>0.677777777777778</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="H51" s="0" t="n">
         <v>39.21509</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="I51" s="0" t="n">
         <v>9.749529</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">H51/18</f>
+        <v>2.17861611111111</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">I51/18</f>
+        <v>0.5416405</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">(J51-K51)/J51</f>
+        <v>0.751383230282016</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,13 +3624,32 @@
         <v>2</v>
       </c>
       <c r="E52" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">E52/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G52" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="H52" s="0" t="n">
+        <v>20.736677</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>4.0595613</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>20.736677</v>
+      <c r="J52" s="0" t="n">
+        <f aca="false">H52/18</f>
+        <v>1.15203761111111</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">I52/18</f>
+        <v>0.225531183333333</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">(J52-K52)/J52</f>
+        <v>0.804232794868724</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,13 +3666,32 @@
         <v>2</v>
       </c>
       <c r="E53" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">E53/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G53" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="H53" s="0" t="n">
+        <v>30.83072</v>
+      </c>
+      <c r="I53" s="0" t="n">
         <v>5.595611</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>30.83072</v>
+      <c r="J53" s="0" t="n">
+        <f aca="false">H53/18</f>
+        <v>1.71281777777778</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">I53/18</f>
+        <v>0.310867277777778</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">(J53-K53)/J53</f>
+        <v>0.818505341425695</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,12 +3708,28 @@
         <v>2</v>
       </c>
       <c r="E54" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">E54/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="H54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="0" t="n">
         <v>7.0219436</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="J54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3447,12 +3747,28 @@
         <v>2</v>
       </c>
       <c r="E55" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">E55/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G55" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="H55" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="0" t="n">
         <v>10.094044</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="J55" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3470,12 +3786,28 @@
         <v>2</v>
       </c>
       <c r="E56" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">E56/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G56" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="H56" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="0" t="n">
         <v>11.739812</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="J56" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3493,13 +3825,32 @@
         <v>2</v>
       </c>
       <c r="E57" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">E57/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G57" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="H57" s="0" t="n">
+        <v>33.90282</v>
+      </c>
+      <c r="I57" s="0" t="n">
         <v>15.799373</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>33.90282</v>
+      <c r="J57" s="0" t="n">
+        <f aca="false">H57/18</f>
+        <v>1.88349</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">I57/18</f>
+        <v>0.877742944444444</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">(J57-K57)/J57</f>
+        <v>0.533980565628464</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,12 +3867,28 @@
         <v>2</v>
       </c>
       <c r="E58" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">E58/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G58" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="H58" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>19.749216</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="J58" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3539,13 +3906,32 @@
         <v>2</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="F59" s="0" t="n">
+        <f aca="false">E59/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>51.677116</v>
+      </c>
+      <c r="I59" s="0" t="n">
         <v>21.175549</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>51.677116</v>
+      <c r="J59" s="0" t="n">
+        <f aca="false">H59/18</f>
+        <v>2.87095088888889</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">I59/18</f>
+        <v>1.17641938888889</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">(J59-K59)/J59</f>
+        <v>0.590233537800368</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,12 +3948,28 @@
         <v>2</v>
       </c>
       <c r="E60" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">E60/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G60" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="H60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="0" t="n">
         <v>24.796238</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="J60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L60" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3585,13 +3987,32 @@
         <v>2</v>
       </c>
       <c r="E61" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">E61/180</f>
+        <v>1.03333333333333</v>
+      </c>
+      <c r="G61" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="H61" s="0" t="n">
+        <v>65.17242</v>
+      </c>
+      <c r="I61" s="0" t="n">
         <v>26.661442</v>
       </c>
-      <c r="G61" s="0" t="n">
-        <v>65.17242</v>
+      <c r="J61" s="0" t="n">
+        <f aca="false">H61/18</f>
+        <v>3.62069</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">I61/18</f>
+        <v>1.48119122222222</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">(J61-K61)/J61</f>
+        <v>0.590909129966326</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_data/GEC/Waldstein1960.xlsx
+++ b/experimental_data/GEC/Waldstein1960.xlsx
@@ -420,7 +420,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -637,11 +637,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91895687"/>
-        <c:axId val="62369559"/>
+        <c:axId val="49807467"/>
+        <c:axId val="54423879"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91895687"/>
+        <c:axId val="49807467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,11 +677,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62369559"/>
+        <c:crossAx val="54423879"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62369559"/>
+        <c:axId val="54423879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91895687"/>
+        <c:crossAx val="49807467"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -742,7 +742,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -928,11 +928,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63914409"/>
-        <c:axId val="64171944"/>
+        <c:axId val="45995052"/>
+        <c:axId val="70454418"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63914409"/>
+        <c:axId val="45995052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,11 +968,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64171944"/>
+        <c:crossAx val="70454418"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64171944"/>
+        <c:axId val="70454418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1008,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63914409"/>
+        <c:crossAx val="45995052"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1033,7 +1033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1241,11 +1241,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="41388585"/>
-        <c:axId val="27036683"/>
+        <c:axId val="82948773"/>
+        <c:axId val="43927778"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41388585"/>
+        <c:axId val="82948773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,11 +1281,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27036683"/>
+        <c:crossAx val="43927778"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27036683"/>
+        <c:axId val="43927778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1321,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41388585"/>
+        <c:crossAx val="82948773"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1437,7 +1437,7 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>702720</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1536,7 +1536,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>399240</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1565,8 +1565,8 @@
   </sheetPr>
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M40" activeCellId="0" sqref="M40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3152,7 +3152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
